--- a/baseline/llm_geminipro/geminipro_analysis/prompt_5_experiment/no_url/2-shot/validation_2_shot_no_url.xlsx
+++ b/baseline/llm_geminipro/geminipro_analysis/prompt_5_experiment/no_url/2-shot/validation_2_shot_no_url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\geminipro_analysis\prompt_5_experiment\no_url\2-shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2010394-2F06-4211-B61C-5EA01915E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE048DD-CE43-48E4-9D9E-4D9F028E5889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="734">
   <si>
     <t>Date (of Dataset)</t>
   </si>
@@ -862,9 +862,6 @@
     <t>http://pengikut-gratis.com/</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Auto Followers</t>
   </si>
   <si>
@@ -1279,9 +1276,6 @@
     <t>https://idevicefindmy.info/?i=A92bg./aU3V57/?c9g7MxvbbdPwOnI5YCTlxsrz8lvmLs3RcRiIveocZhrv6vQES6C15JtOQhgHCE8SfGUweLuBiyB4msT0nJDcJLRFQ7pmUHCHVwt63TOqRkYMgbjaOjLr2QnCP5LDZ8B2VolH984bOOrKQ3ZJuFhl5UnLLT9wD8PM102LM6ap9c./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/./expire/</t>
   </si>
   <si>
-    <t>iCloud</t>
-  </si>
-  <si>
     <t>2363d13b84b28ab73684127ef1c5a1fd1d48c8ce2132b7143bcd3bff044d0775</t>
   </si>
   <si>
@@ -1531,9 +1525,6 @@
     <t>https://www.weibo.com</t>
   </si>
   <si>
-    <t>Sina Weibo</t>
-  </si>
-  <si>
     <t>China Mobile</t>
   </si>
   <si>
@@ -2155,9 +2146,6 @@
     <t>https://www.airslate.com</t>
   </si>
   <si>
-    <t>airSlate</t>
-  </si>
-  <si>
     <t>AirSlate</t>
   </si>
   <si>
@@ -2225,13 +2213,22 @@
   </si>
   <si>
     <t>Payload exceeds limit</t>
+  </si>
+  <si>
+    <t>Weibo</t>
+  </si>
+  <si>
+    <t>Firebase (Google)</t>
+  </si>
+  <si>
+    <t>Airslate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2301,8 +2298,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,6 +2337,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2346,7 +2362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,6 +2398,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,7 +2631,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="J226" sqref="J226:J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3038,7 +3066,7 @@
       </c>
       <c r="N11" s="4">
         <f>COUNTIFS(K:K, "Yes")</f>
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1">
@@ -3082,7 +3110,7 @@
       </c>
       <c r="N12" s="4">
         <f>COUNTIFS(K:K, "No")</f>
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1">
@@ -3184,11 +3212,11 @@
       <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
@@ -3208,7 +3236,7 @@
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1">
@@ -3252,7 +3280,7 @@
       </c>
       <c r="N16" s="3">
         <f>COUNTIFS(E:E, "Yes", F:F, "Yes")</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>64</v>
@@ -3299,7 +3327,7 @@
       </c>
       <c r="N17" s="3">
         <f>COUNTIFS(E:E, "Yes", F:F, "No")</f>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>69</v>
@@ -3346,7 +3374,7 @@
       </c>
       <c r="N18" s="3">
         <f>COUNTIFS(E:E, "No", F:F, "Yes")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>74</v>
@@ -3393,7 +3421,7 @@
       </c>
       <c r="N19" s="3">
         <f>COUNTIFS(E:E, "No", F:F, "No")</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>79</v>
@@ -3690,7 +3718,7 @@
       </c>
       <c r="N26" s="11">
         <f>COUNTIFS(J:J, "No")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>79</v>
@@ -3737,7 +3765,7 @@
       </c>
       <c r="N27" s="11">
         <f>COUNTIFS(J:J, "Indeterminate") + COUNTIFS(J:J, "Payload exceeds limit")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>69</v>
@@ -4170,8 +4198,8 @@
       <c r="D39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>15</v>
+      <c r="E39" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>21</v>
@@ -4191,7 +4219,7 @@
       </c>
       <c r="K39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
@@ -4433,16 +4461,16 @@
         <v>21</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4507,16 +4535,16 @@
         <v>21</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4833,11 +4861,11 @@
       <c r="C57" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>15</v>
+      <c r="E57" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>21</v>
@@ -4857,7 +4885,7 @@
       </c>
       <c r="K57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1">
@@ -5055,11 +5083,11 @@
       <c r="C63" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>15</v>
+      <c r="E63" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>21</v>
@@ -5079,7 +5107,7 @@
       </c>
       <c r="K63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
@@ -5947,7 +5975,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>21</v>
@@ -5967,7 +5995,7 @@
       </c>
       <c r="K87" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1">
@@ -6055,16 +6083,16 @@
         <v>279</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>15</v>
@@ -6074,7 +6102,7 @@
       </c>
       <c r="J90" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="K90" s="3" t="str">
         <f t="shared" si="3"/>
@@ -6086,10 +6114,10 @@
         <v>275</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>86</v>
@@ -6120,13 +6148,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="A92" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>26</v>
@@ -6157,13 +6185,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>26</v>
@@ -6194,13 +6222,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>163</v>
@@ -6212,7 +6240,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>15</v>
@@ -6231,13 +6259,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>216</v>
@@ -6268,17 +6296,17 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="E96" s="10" t="s">
         <v>15</v>
       </c>
@@ -6286,7 +6314,7 @@
         <v>21</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>15</v>
@@ -6305,17 +6333,17 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="E97" s="10" t="s">
         <v>15</v>
       </c>
@@ -6323,7 +6351,7 @@
         <v>21</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>15</v>
@@ -6342,17 +6370,17 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="E98" s="10" t="s">
         <v>15</v>
       </c>
@@ -6360,7 +6388,7 @@
         <v>21</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>15</v>
@@ -6379,25 +6407,25 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>15</v>
@@ -6416,13 +6444,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>14</v>
@@ -6453,13 +6481,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>14</v>
@@ -6490,13 +6518,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="A102" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C102" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>48</v>
@@ -6527,17 +6555,17 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="E103" s="10" t="s">
         <v>15</v>
       </c>
@@ -6545,7 +6573,7 @@
         <v>21</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>15</v>
@@ -6564,13 +6592,13 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>57</v>
@@ -6601,13 +6629,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>53</v>
@@ -6638,13 +6666,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>57</v>
@@ -6675,13 +6703,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>72</v>
@@ -6712,13 +6740,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>48</v>
@@ -6749,25 +6777,25 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>15</v>
@@ -6786,13 +6814,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>48</v>
@@ -6823,17 +6851,17 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="E111" s="10" t="s">
         <v>15</v>
       </c>
@@ -6841,7 +6869,7 @@
         <v>21</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>15</v>
@@ -6860,17 +6888,17 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" customHeight="1">
       <c r="A112" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="D112" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E112" s="10" t="s">
         <v>15</v>
       </c>
@@ -6878,7 +6906,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>15</v>
@@ -6897,19 +6925,19 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>21</v>
@@ -6929,22 +6957,22 @@
       </c>
       <c r="K113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="12.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="E114" s="10" t="s">
         <v>15</v>
       </c>
@@ -6952,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>15</v>
@@ -6971,13 +6999,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>67</v>
@@ -7008,17 +7036,17 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="E116" s="10" t="s">
         <v>21</v>
       </c>
@@ -7026,7 +7054,7 @@
         <v>21</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>15</v>
@@ -7045,17 +7073,17 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="D117" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="E117" s="10" t="s">
         <v>15</v>
       </c>
@@ -7063,7 +7091,7 @@
         <v>21</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>15</v>
@@ -7082,13 +7110,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>67</v>
@@ -7119,25 +7147,25 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="D119" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>15</v>
@@ -7151,18 +7179,18 @@
       </c>
       <c r="K119" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="12.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>86</v>
@@ -7193,13 +7221,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>67</v>
@@ -7230,17 +7258,17 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="A122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D122" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="E122" s="10" t="s">
         <v>15</v>
       </c>
@@ -7248,7 +7276,7 @@
         <v>21</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>15</v>
@@ -7267,13 +7295,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>122</v>
@@ -7304,16 +7332,16 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>15</v>
@@ -7322,7 +7350,7 @@
         <v>21</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>15</v>
@@ -7341,17 +7369,17 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="E125" s="10" t="s">
         <v>15</v>
       </c>
@@ -7359,7 +7387,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>15</v>
@@ -7378,13 +7406,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>14</v>
@@ -7415,13 +7443,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>67</v>
@@ -7452,17 +7480,17 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="E128" s="10" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7498,7 @@
         <v>21</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>15</v>
@@ -7489,13 +7517,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>67</v>
@@ -7526,17 +7554,17 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="D130" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="E130" s="10" t="s">
         <v>15</v>
       </c>
@@ -7544,7 +7572,7 @@
         <v>21</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>15</v>
@@ -7563,19 +7591,19 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>21</v>
@@ -7595,24 +7623,24 @@
       </c>
       <c r="K131" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="12.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>21</v>
@@ -7632,22 +7660,22 @@
       </c>
       <c r="K132" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="D133" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E133" s="10" t="s">
         <v>15</v>
       </c>
@@ -7655,7 +7683,7 @@
         <v>21</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>15</v>
@@ -7674,16 +7702,16 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="D134" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>15</v>
@@ -7711,13 +7739,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>163</v>
@@ -7748,17 +7776,17 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="E136" s="10" t="s">
         <v>15</v>
       </c>
@@ -7766,7 +7794,7 @@
         <v>21</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>15</v>
@@ -7785,19 +7813,19 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>21</v>
@@ -7817,30 +7845,30 @@
       </c>
       <c r="K137" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="12.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="D138" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="E138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>15</v>
@@ -7859,19 +7887,19 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>21</v>
@@ -7891,18 +7919,18 @@
       </c>
       <c r="K139" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>44</v>
@@ -7933,25 +7961,25 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>15</v>
@@ -7970,25 +7998,25 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="A142" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>419</v>
+      <c r="D142" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>419</v>
+        <v>122</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>15</v>
@@ -8002,18 +8030,18 @@
       </c>
       <c r="K142" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>67</v>
@@ -8044,13 +8072,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>67</v>
@@ -8081,17 +8109,17 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="E145" s="10" t="s">
         <v>15</v>
       </c>
@@ -8099,7 +8127,7 @@
         <v>15</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>15</v>
@@ -8118,16 +8146,16 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>15</v>
@@ -8136,7 +8164,7 @@
         <v>21</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>15</v>
@@ -8155,25 +8183,25 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>21</v>
@@ -8192,19 +8220,19 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>21</v>
@@ -8224,18 +8252,18 @@
       </c>
       <c r="K148" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="12.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>163</v>
@@ -8266,25 +8294,25 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>15</v>
@@ -8303,16 +8331,16 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>15</v>
@@ -8321,7 +8349,7 @@
         <v>15</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>15</v>
@@ -8340,13 +8368,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" customHeight="1">
       <c r="A152" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>53</v>
@@ -8377,16 +8405,16 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>21</v>
@@ -8395,7 +8423,7 @@
         <v>21</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H153" s="10" t="s">
         <v>15</v>
@@ -8414,17 +8442,17 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="E154" s="10" t="s">
         <v>21</v>
       </c>
@@ -8432,7 +8460,7 @@
         <v>21</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H154" s="10" t="s">
         <v>15</v>
@@ -8451,17 +8479,17 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="E155" s="10" t="s">
         <v>21</v>
       </c>
@@ -8469,7 +8497,7 @@
         <v>21</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H155" s="10" t="s">
         <v>15</v>
@@ -8488,17 +8516,17 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="E156" s="10" t="s">
         <v>21</v>
       </c>
@@ -8506,7 +8534,7 @@
         <v>21</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>21</v>
@@ -8525,17 +8553,17 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="E157" s="10" t="s">
         <v>21</v>
       </c>
@@ -8543,7 +8571,7 @@
         <v>21</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H157" s="10" t="s">
         <v>21</v>
@@ -8562,13 +8590,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>89</v>
@@ -8599,17 +8627,17 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="E159" s="10" t="s">
         <v>21</v>
       </c>
@@ -8617,7 +8645,7 @@
         <v>21</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>15</v>
@@ -8636,17 +8664,17 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="E160" s="10" t="s">
         <v>21</v>
       </c>
@@ -8654,7 +8682,7 @@
         <v>21</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>21</v>
@@ -8673,17 +8701,17 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E161" s="10" t="s">
         <v>21</v>
       </c>
@@ -8691,7 +8719,7 @@
         <v>21</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>21</v>
@@ -8710,13 +8738,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>26</v>
@@ -8747,17 +8775,17 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E163" s="10" t="s">
         <v>21</v>
       </c>
@@ -8765,7 +8793,7 @@
         <v>21</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>15</v>
@@ -8784,17 +8812,17 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E164" s="10" t="s">
         <v>21</v>
       </c>
@@ -8802,7 +8830,7 @@
         <v>21</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H164" s="10" t="s">
         <v>15</v>
@@ -8821,17 +8849,17 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E165" s="10" t="s">
         <v>21</v>
       </c>
@@ -8839,7 +8867,7 @@
         <v>21</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H165" s="10" t="s">
         <v>21</v>
@@ -8858,16 +8886,16 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>21</v>
@@ -8876,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>21</v>
@@ -8895,17 +8923,17 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="E167" s="10" t="s">
         <v>21</v>
       </c>
@@ -8913,7 +8941,7 @@
         <v>21</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H167" s="10" t="s">
         <v>15</v>
@@ -8932,17 +8960,17 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="E168" s="10" t="s">
         <v>21</v>
       </c>
@@ -8950,7 +8978,7 @@
         <v>21</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H168" s="10" t="s">
         <v>21</v>
@@ -8969,17 +8997,17 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="E169" s="10" t="s">
         <v>21</v>
       </c>
@@ -8987,7 +9015,7 @@
         <v>21</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H169" s="10" t="s">
         <v>15</v>
@@ -9006,17 +9034,17 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="E170" s="10" t="s">
         <v>21</v>
       </c>
@@ -9024,7 +9052,7 @@
         <v>21</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>21</v>
@@ -9043,17 +9071,17 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="E171" s="10" t="s">
         <v>21</v>
       </c>
@@ -9061,7 +9089,7 @@
         <v>21</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H171" s="10" t="s">
         <v>15</v>
@@ -9080,17 +9108,17 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D172" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>497</v>
-      </c>
       <c r="E172" s="10" t="s">
         <v>21</v>
       </c>
@@ -9098,7 +9126,7 @@
         <v>21</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H172" s="10" t="s">
         <v>21</v>
@@ -9117,17 +9145,17 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="E173" s="10" t="s">
         <v>21</v>
       </c>
@@ -9135,7 +9163,7 @@
         <v>21</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H173" s="10" t="s">
         <v>15</v>
@@ -9154,25 +9182,25 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>15</v>
@@ -9191,16 +9219,16 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>109</v>
+        <v>503</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>732</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>21</v>
@@ -9208,8 +9236,8 @@
       <c r="F175" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G175" s="10" t="s">
-        <v>109</v>
+      <c r="G175" s="3" t="s">
+        <v>732</v>
       </c>
       <c r="H175" s="10" t="s">
         <v>15</v>
@@ -9228,16 +9256,16 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>21</v>
@@ -9246,7 +9274,7 @@
         <v>21</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H176" s="10" t="s">
         <v>21</v>
@@ -9265,16 +9293,16 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>21</v>
@@ -9283,7 +9311,7 @@
         <v>21</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H177" s="10" t="s">
         <v>21</v>
@@ -9302,25 +9330,25 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>15</v>
@@ -9339,16 +9367,16 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>21</v>
@@ -9357,7 +9385,7 @@
         <v>21</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H179" s="10" t="s">
         <v>21</v>
@@ -9376,31 +9404,31 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J180" s="3" t="str">
         <f t="shared" si="4"/>
@@ -9413,16 +9441,16 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>21</v>
@@ -9431,7 +9459,7 @@
         <v>21</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H181" s="10" t="s">
         <v>15</v>
@@ -9450,16 +9478,16 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>21</v>
@@ -9468,7 +9496,7 @@
         <v>21</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H182" s="10" t="s">
         <v>21</v>
@@ -9487,16 +9515,16 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>21</v>
@@ -9505,7 +9533,7 @@
         <v>21</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>15</v>
@@ -9524,16 +9552,16 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>21</v>
@@ -9542,7 +9570,7 @@
         <v>21</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>15</v>
@@ -9561,25 +9589,25 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F185" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>21</v>
@@ -9598,16 +9626,16 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>21</v>
@@ -9616,7 +9644,7 @@
         <v>21</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>15</v>
@@ -9635,31 +9663,31 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J187" s="3" t="str">
         <f t="shared" si="4"/>
@@ -9672,16 +9700,16 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>21</v>
@@ -9690,7 +9718,7 @@
         <v>21</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>15</v>
@@ -9709,16 +9737,16 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>21</v>
@@ -9727,7 +9755,7 @@
         <v>21</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>15</v>
@@ -9746,16 +9774,16 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>21</v>
@@ -9764,7 +9792,7 @@
         <v>21</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>21</v>
@@ -9783,16 +9811,16 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>21</v>
@@ -9801,7 +9829,7 @@
         <v>21</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>15</v>
@@ -9820,16 +9848,16 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>21</v>
@@ -9838,7 +9866,7 @@
         <v>21</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H192" s="10" t="s">
         <v>15</v>
@@ -9857,16 +9885,16 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>21</v>
@@ -9875,7 +9903,7 @@
         <v>21</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>15</v>
@@ -9894,16 +9922,16 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>21</v>
@@ -9912,7 +9940,7 @@
         <v>21</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>21</v>
@@ -9931,16 +9959,16 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>21</v>
@@ -9949,7 +9977,7 @@
         <v>21</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H195" s="10" t="s">
         <v>21</v>
@@ -9968,16 +9996,16 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>21</v>
@@ -9986,7 +10014,7 @@
         <v>21</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H196" s="10" t="s">
         <v>15</v>
@@ -10005,16 +10033,16 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>21</v>
@@ -10023,7 +10051,7 @@
         <v>21</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>21</v>
@@ -10042,16 +10070,16 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>21</v>
@@ -10060,7 +10088,7 @@
         <v>21</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>15</v>
@@ -10079,16 +10107,16 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>21</v>
@@ -10097,7 +10125,7 @@
         <v>21</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>21</v>
@@ -10116,25 +10144,25 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>584</v>
       </c>
       <c r="H200" s="10" t="s">
         <v>15</v>
@@ -10153,16 +10181,16 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>21</v>
@@ -10171,7 +10199,7 @@
         <v>21</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H201" s="10" t="s">
         <v>15</v>
@@ -10190,16 +10218,16 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>21</v>
@@ -10208,7 +10236,7 @@
         <v>21</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H202" s="10" t="s">
         <v>15</v>
@@ -10227,16 +10255,16 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>21</v>
@@ -10245,7 +10273,7 @@
         <v>21</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H203" s="10" t="s">
         <v>15</v>
@@ -10264,16 +10292,16 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>21</v>
@@ -10282,7 +10310,7 @@
         <v>21</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H204" s="10" t="s">
         <v>21</v>
@@ -10301,16 +10329,16 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>21</v>
@@ -10319,7 +10347,7 @@
         <v>21</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H205" s="10" t="s">
         <v>21</v>
@@ -10338,16 +10366,16 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>21</v>
@@ -10356,7 +10384,7 @@
         <v>21</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H206" s="10" t="s">
         <v>15</v>
@@ -10375,16 +10403,16 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>21</v>
@@ -10393,7 +10421,7 @@
         <v>21</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H207" s="10" t="s">
         <v>21</v>
@@ -10412,16 +10440,16 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>21</v>
@@ -10430,7 +10458,7 @@
         <v>15</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H208" s="10" t="s">
         <v>15</v>
@@ -10449,16 +10477,16 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>21</v>
@@ -10467,7 +10495,7 @@
         <v>21</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H209" s="10" t="s">
         <v>15</v>
@@ -10486,16 +10514,16 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>21</v>
@@ -10504,7 +10532,7 @@
         <v>21</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H210" s="10" t="s">
         <v>21</v>
@@ -10523,16 +10551,16 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>21</v>
@@ -10541,7 +10569,7 @@
         <v>21</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H211" s="10" t="s">
         <v>21</v>
@@ -10560,25 +10588,25 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F212" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="H212" s="10" t="s">
         <v>21</v>
@@ -10597,16 +10625,16 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>21</v>
@@ -10615,7 +10643,7 @@
         <v>21</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H213" s="10" t="s">
         <v>15</v>
@@ -10634,16 +10662,16 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>21</v>
@@ -10652,7 +10680,7 @@
         <v>21</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H214" s="10" t="s">
         <v>15</v>
@@ -10671,13 +10699,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>57</v>
@@ -10708,16 +10736,16 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>21</v>
@@ -10726,7 +10754,7 @@
         <v>21</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H216" s="10" t="s">
         <v>15</v>
@@ -10745,16 +10773,16 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>21</v>
@@ -10763,7 +10791,7 @@
         <v>21</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H217" s="10" t="s">
         <v>15</v>
@@ -10782,16 +10810,16 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>21</v>
@@ -10800,7 +10828,7 @@
         <v>21</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H218" s="10" t="s">
         <v>15</v>
@@ -10819,16 +10847,16 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>21</v>
@@ -10837,7 +10865,7 @@
         <v>21</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H219" s="10" t="s">
         <v>15</v>
@@ -10856,31 +10884,31 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J220" s="3" t="str">
         <f t="shared" si="6"/>
@@ -10893,25 +10921,25 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F221" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" s="10" t="s">
-        <v>647</v>
       </c>
       <c r="H221" s="10" t="s">
         <v>15</v>
@@ -10930,25 +10958,25 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G222" s="10" t="s">
         <v>648</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E222" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F222" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" s="10" t="s">
-        <v>651</v>
       </c>
       <c r="H222" s="10" t="s">
         <v>15</v>
@@ -10967,16 +10995,16 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E223" s="10" t="s">
         <v>21</v>
@@ -10985,7 +11013,7 @@
         <v>21</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H223" s="10" t="s">
         <v>21</v>
@@ -11004,16 +11032,16 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E224" s="10" t="s">
         <v>21</v>
@@ -11022,7 +11050,7 @@
         <v>21</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H224" s="10" t="s">
         <v>15</v>
@@ -11041,25 +11069,25 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" s="10" t="s">
         <v>658</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F225" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" s="10" t="s">
-        <v>661</v>
       </c>
       <c r="H225" s="10" t="s">
         <v>15</v>
@@ -11078,25 +11106,25 @@
     </row>
     <row r="226" spans="1:11" ht="12.75" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E226" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F226" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G226" s="10" t="s">
-        <v>665</v>
       </c>
       <c r="H226" s="10" t="s">
         <v>21</v>
@@ -11115,16 +11143,16 @@
     </row>
     <row r="227" spans="1:11" ht="12.75" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>21</v>
@@ -11133,7 +11161,7 @@
         <v>21</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H227" s="10" t="s">
         <v>21</v>
@@ -11152,31 +11180,31 @@
     </row>
     <row r="228" spans="1:11" ht="12.75" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>671</v>
+        <v>667</v>
+      </c>
+      <c r="D228" s="20" t="s">
+        <v>668</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J228" s="3" t="str">
         <f t="shared" si="6"/>
@@ -11189,16 +11217,16 @@
     </row>
     <row r="229" spans="1:11" ht="12.75" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E229" s="10" t="s">
         <v>21</v>
@@ -11207,7 +11235,7 @@
         <v>21</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H229" s="10" t="s">
         <v>21</v>
@@ -11226,16 +11254,16 @@
     </row>
     <row r="230" spans="1:11" ht="12.75" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E230" s="10" t="s">
         <v>21</v>
@@ -11244,7 +11272,7 @@
         <v>21</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H230" s="10" t="s">
         <v>15</v>
@@ -11263,16 +11291,16 @@
     </row>
     <row r="231" spans="1:11" ht="12.75" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E231" s="10" t="s">
         <v>21</v>
@@ -11281,7 +11309,7 @@
         <v>21</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H231" s="10" t="s">
         <v>15</v>
@@ -11300,16 +11328,16 @@
     </row>
     <row r="232" spans="1:11" ht="12.75" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E232" s="10" t="s">
         <v>21</v>
@@ -11318,7 +11346,7 @@
         <v>21</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H232" s="10" t="s">
         <v>15</v>
@@ -11337,16 +11365,16 @@
     </row>
     <row r="233" spans="1:11" ht="12.75" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E233" s="10" t="s">
         <v>21</v>
@@ -11355,7 +11383,7 @@
         <v>21</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H233" s="10" t="s">
         <v>15</v>
@@ -11374,16 +11402,16 @@
     </row>
     <row r="234" spans="1:11" ht="12.75" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>21</v>
@@ -11392,7 +11420,7 @@
         <v>21</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H234" s="10" t="s">
         <v>15</v>
@@ -11411,25 +11439,25 @@
     </row>
     <row r="235" spans="1:11" ht="12.75" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G235" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="H235" s="10" t="s">
         <v>21</v>
@@ -11448,16 +11476,16 @@
     </row>
     <row r="236" spans="1:11" ht="12.75" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>21</v>
@@ -11466,7 +11494,7 @@
         <v>21</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H236" s="10" t="s">
         <v>15</v>
@@ -11485,16 +11513,16 @@
     </row>
     <row r="237" spans="1:11" ht="12.75" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E237" s="10" t="s">
         <v>21</v>
@@ -11503,7 +11531,7 @@
         <v>21</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H237" s="10" t="s">
         <v>15</v>
@@ -11522,16 +11550,16 @@
     </row>
     <row r="238" spans="1:11" ht="12.75" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E238" s="10" t="s">
         <v>21</v>
@@ -11540,7 +11568,7 @@
         <v>21</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H238" s="10" t="s">
         <v>21</v>
@@ -11559,31 +11587,31 @@
     </row>
     <row r="239" spans="1:11" ht="12.75" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E239" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J239" s="3" t="str">
         <f t="shared" si="6"/>
@@ -11596,16 +11624,16 @@
     </row>
     <row r="240" spans="1:11" ht="12.75" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>21</v>
@@ -11614,7 +11642,7 @@
         <v>21</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H240" s="10" t="s">
         <v>15</v>
@@ -11633,16 +11661,16 @@
     </row>
     <row r="241" spans="1:11" ht="12.75" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>733</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>21</v>
@@ -11651,7 +11679,7 @@
         <v>21</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H241" s="10" t="s">
         <v>15</v>
@@ -11670,16 +11698,16 @@
     </row>
     <row r="242" spans="1:11" ht="12.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E242" s="10" t="s">
         <v>21</v>
@@ -11688,7 +11716,7 @@
         <v>21</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H242" s="10" t="s">
         <v>15</v>
@@ -11707,16 +11735,16 @@
     </row>
     <row r="243" spans="1:11" ht="12.75" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E243" s="10" t="s">
         <v>21</v>
@@ -11725,7 +11753,7 @@
         <v>21</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H243" s="10" t="s">
         <v>21</v>
@@ -11744,16 +11772,16 @@
     </row>
     <row r="244" spans="1:11" ht="12.75" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E244" s="10" t="s">
         <v>21</v>
@@ -11762,7 +11790,7 @@
         <v>21</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H244" s="10" t="s">
         <v>15</v>
@@ -11781,16 +11809,16 @@
     </row>
     <row r="245" spans="1:11" ht="12.75" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E245" s="10" t="s">
         <v>21</v>
@@ -11799,7 +11827,7 @@
         <v>21</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H245" s="10" t="s">
         <v>15</v>
@@ -11818,16 +11846,16 @@
     </row>
     <row r="246" spans="1:11" ht="12.75" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E246" s="10" t="s">
         <v>21</v>
@@ -11836,7 +11864,7 @@
         <v>21</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H246" s="10" t="s">
         <v>21</v>
@@ -11855,16 +11883,16 @@
     </row>
     <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>21</v>
@@ -11873,7 +11901,7 @@
         <v>21</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H247" s="10" t="s">
         <v>21</v>
@@ -11892,16 +11920,16 @@
     </row>
     <row r="248" spans="1:11" ht="12.75" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>21</v>
@@ -11910,7 +11938,7 @@
         <v>21</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H248" s="10" t="s">
         <v>15</v>
@@ -15118,78 +15146,78 @@
     <hyperlink ref="C176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="C177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="C178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C196" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C197" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C198" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C199" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C200" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C201" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C202" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C203" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C204" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C209" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C210" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C211" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C212" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C214" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C215" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C216" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C217" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C218" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C219" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C220" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C221" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C223" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C224" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C225" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C226" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C227" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="D228" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C229" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C230" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C231" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C232" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C233" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C234" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C235" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C236" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C237" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C238" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C239" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C240" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C241" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C242" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C243" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C244" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C245" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C246" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C247" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C248" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D178" r:id="rId248" xr:uid="{31A181FD-AF6B-4D8A-9A73-A1E5186CEDED}"/>
+    <hyperlink ref="D228" r:id="rId249" xr:uid="{9D148F8C-99DC-46F0-9E2A-4DCDEFD26293}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
